--- a/data/trans_orig/POLIMEDICACION-Clase-trans_orig.xlsx
+++ b/data/trans_orig/POLIMEDICACION-Clase-trans_orig.xlsx
@@ -7741,12 +7741,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7756,12 +7756,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -7854,12 +7854,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8242</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">

--- a/data/trans_orig/POLIMEDICACION-Clase-trans_orig.xlsx
+++ b/data/trans_orig/POLIMEDICACION-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en País Vasco</t>
+          <t>Polimedicación (5 o más medicamentos) en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en Andalucia</t>
+          <t>Polimedicación (5 o más medicamentos) en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en C.Valenciana</t>
+          <t>Polimedicación (5 o más medicamentos) en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/POLIMEDICACION-Clase-trans_orig.xlsx
+++ b/data/trans_orig/POLIMEDICACION-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6552</t>
+          <t>6359</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>4395</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9115</t>
+          <t>8720</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3245</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5092</t>
+          <t>5368</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>9797</t>
+          <t>9820</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7494</t>
+          <t>7548</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>12901</t>
+          <t>12908</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>139258</t>
+          <t>156442</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>136695</t>
+          <t>154081</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>141261</t>
+          <t>158406</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>139646</t>
+          <t>165106</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>137799</t>
+          <t>163199</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>140942</t>
+          <t>166457</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>278904</t>
+          <t>321548</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>275800</t>
+          <t>318460</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>281207</t>
+          <t>323820</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>97,72%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4317</t>
+          <t>4871</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6432</t>
+          <t>7204</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2423</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1486</t>
+          <t>1751</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3862</t>
+          <t>4880</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>6740</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>4736</t>
+          <t>5795</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>9172</t>
+          <t>10769</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76855</t>
+          <t>85554</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74740</t>
+          <t>83221</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>78404</t>
+          <t>87239</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>106694</t>
+          <t>119509</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>105255</t>
+          <t>117788</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>107631</t>
+          <t>120917</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>183549</t>
+          <t>205063</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>181117</t>
+          <t>202324</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>185553</t>
+          <t>207298</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>97,28%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14336</t>
+          <t>11662</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11351</t>
+          <t>9270</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18261</t>
+          <t>14499</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5498</t>
+          <t>5410</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3809</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7746</t>
+          <t>7618</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>19835</t>
+          <t>17071</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>16483</t>
+          <t>13890</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>24430</t>
+          <t>20791</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>9,65%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>149520</t>
+          <t>142222</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>145595</t>
+          <t>139385</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>152505</t>
+          <t>144614</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57647</t>
+          <t>56207</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55399</t>
+          <t>53999</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59336</t>
+          <t>57860</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>207166</t>
+          <t>198430</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>202571</t>
+          <t>194710</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>210518</t>
+          <t>201611</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>93,55%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15385</t>
+          <t>14072</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12254</t>
+          <t>11153</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19185</t>
+          <t>17318</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11961</t>
+          <t>11323</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9259</t>
+          <t>8868</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15249</t>
+          <t>14607</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>27346</t>
+          <t>25394</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>23031</t>
+          <t>21389</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>32253</t>
+          <t>29837</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>8,48%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>154704</t>
+          <t>155647</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>150904</t>
+          <t>152401</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>157835</t>
+          <t>158566</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,96%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,72%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>165222</t>
+          <t>170867</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>161934</t>
+          <t>167583</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>167924</t>
+          <t>173322</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>319925</t>
+          <t>326515</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>315018</t>
+          <t>322072</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>324240</t>
+          <t>330520</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,13%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>93,92%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4958</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7132</t>
+          <t>6856</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12503</t>
+          <t>10919</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9744</t>
+          <t>8616</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15804</t>
+          <t>13825</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>17460</t>
+          <t>15600</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>14290</t>
+          <t>12572</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>21724</t>
+          <t>18876</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>9,44%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>71893</t>
+          <t>69770</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69719</t>
+          <t>67595</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73554</t>
+          <t>71291</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>90,79%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>120429</t>
+          <t>114497</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>117128</t>
+          <t>111591</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>123188</t>
+          <t>116800</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,11%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>192323</t>
+          <t>184267</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>188059</t>
+          <t>180991</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>195493</t>
+          <t>187295</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>93,71%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>225</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14992</t>
+          <t>13023</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11963</t>
+          <t>10379</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18299</t>
+          <t>16024</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>15319</t>
+          <t>13248</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12369</t>
+          <t>10449</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>19173</t>
+          <t>16262</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>9,13%</t>
         </is>
       </c>
     </row>
@@ -2563,27 +2563,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44934</t>
+          <t>55378</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43550</t>
+          <t>54556</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>103285</t>
+          <t>109578</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>99978</t>
+          <t>106577</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>106314</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>87,32%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>148219</t>
+          <t>164956</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>144365</t>
+          <t>161942</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>151169</t>
+          <t>167755</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,63%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,28%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>94,14%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,34 +2793,34 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>45875</t>
+          <t>41869</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>39698</t>
+          <t>36852</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>52299</t>
+          <t>47498</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
           <t>6,72%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>7,66%</t>
-        </is>
-      </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
           <t>291</t>
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>50622</t>
+          <t>47295</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>44762</t>
+          <t>41915</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>57416</t>
+          <t>52817</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>96497</t>
+          <t>89164</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>88009</t>
+          <t>82096</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>104873</t>
+          <t>96389</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>6,47%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>637164</t>
+          <t>665014</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>630740</t>
+          <t>659385</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>643341</t>
+          <t>670031</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
+          <t>94,08%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>93,28%</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>92,34%</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>692922</t>
+          <t>735764</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>686128</t>
+          <t>730242</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>698782</t>
+          <t>741144</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1330086</t>
+          <t>1400777</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1321710</t>
+          <t>1393552</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1338574</t>
+          <t>1407845</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>94,49%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>4490</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15335</t>
+          <t>14876</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>11659</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25413</t>
+          <t>25749</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>18951</t>
+          <t>18933</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>35829</t>
+          <t>35316</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>351348</t>
+          <t>351807</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>362064</t>
+          <t>362193</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>273488</t>
+          <t>273152</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>287280</t>
+          <t>287242</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>629755</t>
+          <t>630268</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>646633</t>
+          <t>646651</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,16%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8990</t>
+          <t>9048</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23129</t>
+          <t>23176</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11410</t>
+          <t>11323</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23703</t>
+          <t>23889</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>23848</t>
+          <t>23571</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>41281</t>
+          <t>41316</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>300918</t>
+          <t>300871</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>315057</t>
+          <t>314999</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>236378</t>
+          <t>236192</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>248671</t>
+          <t>248758</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>542847</t>
+          <t>542812</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>560280</t>
+          <t>560557</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>95,96%</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4352</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37349</t>
+          <t>38152</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9920</t>
+          <t>9937</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20838</t>
+          <t>20072</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9462</t>
+          <t>10350</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>59444</t>
+          <t>58876</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>10,28%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>438075</t>
+          <t>437272</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>471072</t>
+          <t>471241</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76726</t>
+          <t>77492</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>87644</t>
+          <t>87627</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>78,64%</t>
+          <t>79,43%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>89,81%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>513544</t>
+          <t>514112</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>563526</t>
+          <t>562638</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>98,19%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19181</t>
+          <t>20260</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37541</t>
+          <t>38848</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12359</t>
+          <t>12108</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50414</t>
+          <t>50468</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>35050</t>
+          <t>32187</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>78147</t>
+          <t>78224</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>498614</t>
+          <t>497307</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>516974</t>
+          <t>515895</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>586224</t>
+          <t>586170</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>624279</t>
+          <t>624530</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1094646</t>
+          <t>1094569</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1137743</t>
+          <t>1140606</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>97,26%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3418</t>
+          <t>3365</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12069</t>
+          <t>12034</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33661</t>
+          <t>31031</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>78903</t>
+          <t>77874</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>47275</t>
+          <t>46119</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>87817</t>
+          <t>86699</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>13,65%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>199153</t>
+          <t>199188</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>207804</t>
+          <t>207857</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>345046</t>
+          <t>346075</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>390288</t>
+          <t>392918</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>81,39%</t>
+          <t>81,63%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>547354</t>
+          <t>548472</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>587896</t>
+          <t>589052</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,74%</t>
         </is>
       </c>
     </row>
@@ -5098,12 +5098,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>465</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4949</t>
+          <t>4584</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5113,12 +5113,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>50753</t>
+          <t>50845</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>73852</t>
+          <t>73150</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>50838</t>
+          <t>52984</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>76100</t>
+          <t>76755</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>11,69%</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>161812</t>
+          <t>162177</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166280</t>
+          <t>166296</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>99,72%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>416116</t>
+          <t>416818</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>439215</t>
+          <t>439123</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>84,93%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>89,62%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>580629</t>
+          <t>579974</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>605891</t>
+          <t>603745</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,41%</t>
+          <t>88,31%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>91,93%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>51001</t>
+          <t>47331</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>94103</t>
+          <t>94593</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>146025</t>
+          <t>134716</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>233518</t>
+          <t>237359</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>225912</t>
+          <t>217480</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>321098</t>
+          <t>317702</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,41%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1986189</t>
+          <t>1985699</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2029291</t>
+          <t>2032961</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>95,45%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1973583</t>
+          <t>1969742</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2061076</t>
+          <t>2072385</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>89,42%</t>
+          <t>89,25%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3966295</t>
+          <t>3969691</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4061481</t>
+          <t>4069913</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>94,93%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/POLIMEDICACION-Clase-trans_orig.xlsx
+++ b/data/trans_orig/POLIMEDICACION-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Polimedicación (5 o más medicamentos) en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6359</t>
+          <t>9554</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4395</t>
+          <t>5087</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8720</t>
+          <t>16080</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3461</t>
+          <t>20320</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>13789</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5368</t>
+          <t>29947</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>9820</t>
+          <t>29874</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7548</t>
+          <t>21849</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>12908</t>
+          <t>40067</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>386</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>156442</t>
+          <t>385833</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>154081</t>
+          <t>379307</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>158406</t>
+          <t>390300</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>426</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>165106</t>
+          <t>307306</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>163199</t>
+          <t>297679</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>166457</t>
+          <t>313837</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1675</t>
+          <t>812</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>321548</t>
+          <t>693139</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>318460</t>
+          <t>682946</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>323820</t>
+          <t>701164</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>96,98%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4871</t>
+          <t>14915</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3186</t>
+          <t>9191</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7204</t>
+          <t>23115</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>17331</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1751</t>
+          <t>11487</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4880</t>
+          <t>24650</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>49</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>8030</t>
+          <t>32246</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5795</t>
+          <t>24366</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>10769</t>
+          <t>42052</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>6,66%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>85554</t>
+          <t>329432</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83221</t>
+          <t>321232</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87239</t>
+          <t>335156</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>364</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>119509</t>
+          <t>269609</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>117788</t>
+          <t>262290</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>120917</t>
+          <t>275453</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>678</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>205063</t>
+          <t>599041</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>202324</t>
+          <t>589235</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>207298</t>
+          <t>606921</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>93,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>96,14%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11662</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9270</t>
+          <t>10799</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14499</t>
+          <t>25806</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>16602</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3757</t>
+          <t>11160</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7618</t>
+          <t>22640</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>49</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17071</t>
+          <t>33301</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>13890</t>
+          <t>25127</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>20791</t>
+          <t>43603</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>11,72%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>142222</t>
+          <t>243858</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>139385</t>
+          <t>234750</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>144614</t>
+          <t>249757</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>90,1%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56207</t>
+          <t>94884</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53999</t>
+          <t>88846</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>57860</t>
+          <t>100326</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>79,69%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>375</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>198430</t>
+          <t>338742</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>194710</t>
+          <t>328440</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>201611</t>
+          <t>346916</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>88,28%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>93,25%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14072</t>
+          <t>29916</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11153</t>
+          <t>21619</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17318</t>
+          <t>41440</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11323</t>
+          <t>34612</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8868</t>
+          <t>26991</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14607</t>
+          <t>44596</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25394</t>
+          <t>64528</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>21389</t>
+          <t>51849</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>29837</t>
+          <t>78620</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>7,15%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>525</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>155647</t>
+          <t>580066</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>152401</t>
+          <t>568542</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>158566</t>
+          <t>588363</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,8%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>170867</t>
+          <t>455541</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>167583</t>
+          <t>445557</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>173322</t>
+          <t>463162</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>326515</t>
+          <t>1035607</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>322072</t>
+          <t>1021515</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>330520</t>
+          <t>1048286</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>95,29%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4681</t>
+          <t>7219</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3160</t>
+          <t>3552</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6856</t>
+          <t>12700</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10919</t>
+          <t>63697</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8616</t>
+          <t>52283</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13825</t>
+          <t>75796</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>115</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>15600</t>
+          <t>70916</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12572</t>
+          <t>58547</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>18876</t>
+          <t>84544</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>12,78%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69770</t>
+          <t>246122</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>67595</t>
+          <t>240641</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71291</t>
+          <t>249789</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>480</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>114497</t>
+          <t>344322</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>111591</t>
+          <t>332223</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>116800</t>
+          <t>355736</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,98%</t>
+          <t>81,42%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>702</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>184267</t>
+          <t>590445</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>180991</t>
+          <t>576817</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>187295</t>
+          <t>602814</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>87,22%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>91,15%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>485</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>4628</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13023</t>
+          <t>67921</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10379</t>
+          <t>55942</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16024</t>
+          <t>80322</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>116</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>13248</t>
+          <t>69525</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>10449</t>
+          <t>58965</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>16262</t>
+          <t>84341</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>11,77%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>55378</t>
+          <t>167893</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>54556</t>
+          <t>164869</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169012</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>109578</t>
+          <t>478953</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>106577</t>
+          <t>466552</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>112222</t>
+          <t>490932</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>660</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>164956</t>
+          <t>646846</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>161942</t>
+          <t>632030</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>167755</t>
+          <t>657406</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>88,23%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>91,77%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>41869</t>
+          <t>79907</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>36852</t>
+          <t>66175</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>47498</t>
+          <t>97787</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>361</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>47295</t>
+          <t>220483</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>41915</t>
+          <t>198365</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>52817</t>
+          <t>245185</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>466</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>89164</t>
+          <t>300390</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>82096</t>
+          <t>274421</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>96389</t>
+          <t>329580</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>7,84%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3742</t>
+          <t>1762</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>665014</t>
+          <t>1953203</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>659385</t>
+          <t>1935323</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>670031</t>
+          <t>1966935</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4105</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>735764</t>
+          <t>1950616</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>730242</t>
+          <t>1925914</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>741144</t>
+          <t>1972734</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7847</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1400777</t>
+          <t>3903819</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1393552</t>
+          <t>3874629</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1407845</t>
+          <t>3929788</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>93,47%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Polimedicación (5 o más medicamentos) en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2945</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1331</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6652</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8805</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4490</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14876</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,06%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17427</t>
+          <t>6338</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11659</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25749</t>
+          <t>11019</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>26232</t>
+          <t>9283</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>18933</t>
+          <t>6022</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>35316</t>
+          <t>14994</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>510</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>357878</t>
+          <t>292578</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>351807</t>
+          <t>288871</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>362193</t>
+          <t>294192</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>99,55%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>456</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>281474</t>
+          <t>270362</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>273152</t>
+          <t>265681</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>287242</t>
+          <t>273286</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,17%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>966</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>639352</t>
+          <t>562939</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>630268</t>
+          <t>557228</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>646651</t>
+          <t>566200</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>98,95%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14739</t>
+          <t>2370</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9048</t>
+          <t>837</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23176</t>
+          <t>5424</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16779</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11323</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23889</t>
+          <t>7034</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>31518</t>
+          <t>6236</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>23571</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>41316</t>
+          <t>11207</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>340</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>309308</t>
+          <t>193402</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>300871</t>
+          <t>190348</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>314999</t>
+          <t>194935</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>384</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>243302</t>
+          <t>228113</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>236192</t>
+          <t>224945</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>248758</t>
+          <t>230135</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>552610</t>
+          <t>421514</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>542812</t>
+          <t>416543</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>560557</t>
+          <t>424036</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>99,13%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,107 +4059,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15814</t>
+          <t>4730</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4183</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38152</t>
+          <t>8250</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14844</t>
+          <t>8334</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9937</t>
+          <t>4867</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20072</t>
+          <t>13892</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>30658</t>
+          <t>13064</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10350</t>
+          <t>8708</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>58876</t>
+          <t>18818</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>7,14%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>459610</t>
+          <t>176141</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>437272</t>
+          <t>172621</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>471241</t>
+          <t>178201</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82720</t>
+          <t>74466</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>77492</t>
+          <t>68908</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>87627</t>
+          <t>77933</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,79%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>79,43%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>473</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>542330</t>
+          <t>250608</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>514112</t>
+          <t>244854</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>562638</t>
+          <t>254964</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>96,7%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,92 +4402,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27766</t>
+          <t>13016</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20260</t>
+          <t>7872</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38848</t>
+          <t>20183</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31152</t>
+          <t>18342</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12108</t>
+          <t>12490</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50468</t>
+          <t>25315</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>58917</t>
+          <t>31358</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>32187</t>
+          <t>23551</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>78224</t>
+          <t>40491</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -4515,92 +4515,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>508389</t>
+          <t>295417</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>497307</t>
+          <t>288250</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>515895</t>
+          <t>300561</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>519</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>605486</t>
+          <t>297621</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>586170</t>
+          <t>290648</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>624530</t>
+          <t>303473</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>91,99%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1113876</t>
+          <t>593038</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1094569</t>
+          <t>583905</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1140606</t>
+          <t>600845</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>96,23%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6798</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3365</t>
+          <t>471</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12034</t>
+          <t>5169</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>60523</t>
+          <t>8781</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31031</t>
+          <t>5531</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>77874</t>
+          <t>13542</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>67321</t>
+          <t>10785</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>46119</t>
+          <t>7102</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>86699</t>
+          <t>16349</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>204424</t>
+          <t>148282</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>199188</t>
+          <t>145116</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>207857</t>
+          <t>149814</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>248</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>363426</t>
+          <t>146287</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>346075</t>
+          <t>141526</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>392918</t>
+          <t>149537</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>94,34%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>504</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>567850</t>
+          <t>294569</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>548472</t>
+          <t>289005</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>589052</t>
+          <t>298252</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>86,35%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>97,67%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4584</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>61295</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>50845</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>73150</t>
+          <t>4854</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>62851</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>52984</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>76755</t>
+          <t>4862</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>23,4%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>165205</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>162177</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166296</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>428673</t>
+          <t>10307</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>416818</t>
+          <t>6580</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>439123</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>85,07%</t>
+          <t>57,55%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>593878</t>
+          <t>19655</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>579974</t>
+          <t>15920</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>603745</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>76,6%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>75477</t>
+          <t>25064</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>47331</t>
+          <t>18365</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>94593</t>
+          <t>32987</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>202019</t>
+          <t>46789</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>134716</t>
+          <t>37581</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>237359</t>
+          <t>56688</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>153</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>277496</t>
+          <t>71853</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>217480</t>
+          <t>59499</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>317702</t>
+          <t>84407</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>3,81%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2004815</t>
+          <t>1115167</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1985699</t>
+          <t>1107244</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2032961</t>
+          <t>1121866</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>97,8%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>1763</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2005082</t>
+          <t>1027156</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1969742</t>
+          <t>1017257</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2072385</t>
+          <t>1036364</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>95,64%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>89,25%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4365</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4009897</t>
+          <t>2142323</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3969691</t>
+          <t>2129769</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4069913</t>
+          <t>2154677</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>97,31%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Polimedicación (5 o más medicamentos) en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2945</t>
+          <t>6359</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1331</t>
+          <t>4395</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6652</t>
+          <t>8720</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6338</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3414</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11019</t>
+          <t>5368</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>9283</t>
+          <t>9820</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>7548</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>14994</t>
+          <t>12908</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>292578</t>
+          <t>156442</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>288871</t>
+          <t>154081</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>294192</t>
+          <t>158406</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>270362</t>
+          <t>165106</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>265681</t>
+          <t>163199</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>273286</t>
+          <t>166457</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>966</t>
+          <t>1675</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>562939</t>
+          <t>321548</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>557228</t>
+          <t>318460</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>566200</t>
+          <t>323820</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,95%</t>
+          <t>97,72%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2370</t>
+          <t>4871</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5424</t>
+          <t>7204</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3866</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>1751</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7034</t>
+          <t>4880</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>6236</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>5795</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>11207</t>
+          <t>10769</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>469</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>193402</t>
+          <t>85554</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>190348</t>
+          <t>83221</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>194935</t>
+          <t>87239</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>656</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>228113</t>
+          <t>119509</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>224945</t>
+          <t>117788</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>230135</t>
+          <t>120917</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>421514</t>
+          <t>205063</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>416543</t>
+          <t>202324</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>424036</t>
+          <t>207298</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>97,28%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4730</t>
+          <t>11662</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>9270</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8250</t>
+          <t>14499</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8334</t>
+          <t>5410</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4867</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13892</t>
+          <t>7618</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>104</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13064</t>
+          <t>17071</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8708</t>
+          <t>13890</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>18818</t>
+          <t>20791</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>9,65%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>850</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>176141</t>
+          <t>142222</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>172621</t>
+          <t>139385</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>178201</t>
+          <t>144614</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>335</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>74466</t>
+          <t>56207</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>53999</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>77933</t>
+          <t>57860</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>250608</t>
+          <t>198430</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>244854</t>
+          <t>194710</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>254964</t>
+          <t>201611</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>93,55%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13016</t>
+          <t>14072</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7872</t>
+          <t>11153</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20183</t>
+          <t>17318</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18342</t>
+          <t>11323</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12490</t>
+          <t>8868</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25315</t>
+          <t>14607</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>155</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>31358</t>
+          <t>25394</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>23551</t>
+          <t>21389</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>40491</t>
+          <t>29837</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>8,48%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>917</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>295417</t>
+          <t>155647</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>288250</t>
+          <t>152401</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>300561</t>
+          <t>158566</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>970</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>297621</t>
+          <t>170867</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>290648</t>
+          <t>167583</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>303473</t>
+          <t>173322</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>593038</t>
+          <t>326515</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>583905</t>
+          <t>322072</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>600845</t>
+          <t>330520</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>93,92%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5169</t>
+          <t>6856</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8781</t>
+          <t>10919</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5531</t>
+          <t>8616</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13542</t>
+          <t>13825</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>97</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>10785</t>
+          <t>15600</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7102</t>
+          <t>12572</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>16349</t>
+          <t>18876</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>9,44%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>148282</t>
+          <t>69770</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>145116</t>
+          <t>67595</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>149814</t>
+          <t>71291</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>90,79%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>677</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>146287</t>
+          <t>114497</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>141526</t>
+          <t>111591</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>149537</t>
+          <t>116800</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>294569</t>
+          <t>184267</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>289005</t>
+          <t>180991</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>298252</t>
+          <t>187295</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>93,71%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>13023</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10379</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4854</t>
+          <t>16024</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>13248</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10449</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4862</t>
+          <t>16262</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>9,13%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55378</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>54556</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>99,6%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>98,12%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>608</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>10307</t>
+          <t>109578</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6580</t>
+          <t>106577</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>112222</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>57,55%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>875</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>19655</t>
+          <t>164956</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>15920</t>
+          <t>161942</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>167755</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>76,6%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,14%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>25064</t>
+          <t>41869</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18365</t>
+          <t>36852</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32987</t>
+          <t>47498</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>291</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>46789</t>
+          <t>47295</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>37581</t>
+          <t>41915</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>56688</t>
+          <t>52817</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>71853</t>
+          <t>89164</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>59499</t>
+          <t>82096</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>84407</t>
+          <t>96389</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>6,47%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1115167</t>
+          <t>665014</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1107244</t>
+          <t>659385</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1121866</t>
+          <t>670031</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1763</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1027156</t>
+          <t>735764</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1017257</t>
+          <t>730242</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1036364</t>
+          <t>741144</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3771</t>
+          <t>7847</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2142323</t>
+          <t>1400777</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2129769</t>
+          <t>1393552</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2154677</t>
+          <t>1407845</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>94,49%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
